--- a/src/predicciones/holt_winters/producto_98.xlsx
+++ b/src/predicciones/holt_winters/producto_98.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,168 +404,69 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44985</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>13.42353819472488</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>45016</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>10.82507203574747</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>45046</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>11.38817067426241</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>45107</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>13.99804765944524</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>45169</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>12.73375298414182</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>45199</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>13.06787346583565</v>
       </c>
       <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
         <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
